--- a/study_data/Covergence/fault_time_convergence_data.xlsx
+++ b/study_data/Covergence/fault_time_convergence_data.xlsx
@@ -1760,72 +1760,72 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>893</v>
+        <v>38</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>66</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>162</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
           <t>2.95</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>921</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="Q14" t="n">
-        <v>1017</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>3.00</t>
         </is>
       </c>
     </row>
@@ -4730,64 +4730,64 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2.79</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.82</t>
         </is>
       </c>
     </row>
@@ -4912,59 +4912,59 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -10864,11 +10864,11 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -10878,53 +10878,53 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>279</v>
+        <v>59</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>379</v>
+        <v>159</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>2.62</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
@@ -13855,7 +13855,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -13870,23 +13870,23 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -14016,7 +14016,7 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -14026,7 +14026,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -14063,12 +14063,12 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
@@ -32337,72 +32337,72 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
           <t>2.64</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2.78</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
       <c r="Q14" t="n">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
           <t>2.70</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.95</t>
         </is>
       </c>
     </row>
@@ -35307,17 +35307,17 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -35328,38 +35328,38 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.90</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -35489,12 +35489,12 @@
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -35510,7 +35510,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -35525,7 +35525,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
@@ -35536,7 +35536,7 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
